--- a/题库数据获取/二级建造师anki/anki目录.xlsx
+++ b/题库数据获取/二级建造师anki/anki目录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85D10D03-FA12-4DBE-86EC-FA463818CCDB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3B76F4F6-236D-4C9F-BCD1-421262E8EF5E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="1936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="1753">
   <si>
     <t>二建2018水利::2F310000　水利水电工程施工技术::2F311000　水利水电工程建筑物及建筑材料::2F311010　水利水电工程建筑物的类型及组成::1.单选::single_analysis_file.txt</t>
   </si>
@@ -5283,556 +5283,6 @@
   </si>
   <si>
     <t>二建2018水利::2F310000　水利水电工程施工技术::2F311000　水利水电工程建筑物及建筑材料::2F311010　水利水电工程建筑物的类型及组成::1.单选::data_single.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二建2018水利::2F310000　水利水电工程施工技术::2F311000　水利水电工程建筑物及建筑材料::2F311020　水利水电工程勘察与测量::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F310000　水利水电工程施工技术::2F311000　水利水电工程建筑物及建筑材料::2F311030　水利水电工程建筑材料::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F310000　水利水电工程施工技术::2F312000　水利水电工程施工导流::2F312010　导　流::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F310000　水利水电工程施工技术::2F312000　水利水电工程施工导流::2F312020　截　流::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F310000　水利水电工程施工技术::2F313000　水利水电工程主体工程施工::2F313010　土石方开挖工程::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F310000　水利水电工程施工技术::2F313000　水利水电工程主体工程施工::2F313020　地基与基础工程::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F310000　水利水电工程施工技术::2F313000　水利水电工程主体工程施工::2F313030　土石坝和堤防工程::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F310000　水利水电工程施工技术::2F313000　水利水电工程主体工程施工::2F313040　混凝土工程::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F310000　水利水电工程施工技术::2F313000　水利水电工程主体工程施工::2F313050　水利水电工程机电设备及金属结构安装工程::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F310000　水利水电工程施工技术::2F313000　水利水电工程主体工程施工::2F313060　水利水电工程施工安全技术::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F320000　水利水电工程项目施工管理::2F320010　水利工程建设程序::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F320000　水利水电工程项目施工管理::2F320020　水利水电工程施工组织设计::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F320000　水利水电工程项目施工管理::2F320030　水利水电工程施工成本管理::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F320000　水利水电工程项目施工管理::2F320040　水利水电工程施工招标投标管理::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F320000　水利水电工程项目施工管理::2F320050　水利水电工程施工合同管理::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F320000　水利水电工程项目施工管理::2F320060　水利水电工程施工质量管理::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F320000　水利水电工程项目施工管理::2F320070　水利水电工程施工质量评定::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F320000　水利水电工程项目施工管理::2F320080　水利水电工程施工安全管理::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F320000　水利水电工程项目施工管理::2F320090　水利水电工程验收::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F320000　水利水电工程项目施工管理::2F320100　水利水电工程项目施工管理::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F330000　水利水电工程项目施工相关法规与标准::2F331000　水利水电工程相关法规::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F330000　水利水电工程项目施工相关法规与标准::2F332000　水利水电工程建设强制性标准::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F330000　水利水电工程项目施工相关法规与标准::2F333000　二级建造师（水利水电工程）注册执业管理规定及相关要求::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z201000　建设工程基本法律知识::2Z201010　建设工程法律体系::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z201000　建设工程基本法律知识::2Z201020　建设工程法人制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z201000　建设工程基本法律知识::2Z201030　建设工程代理制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z201000　建设工程基本法律知识::2Z201040　建设工程物权制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z201000　建设工程基本法律知识::2Z201050　建设工程债权制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z201000　建设工程基本法律知识::2Z201060　建设工程知识产权制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z201000　建设工程基本法律知识::2Z201070　建设工程担保制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z201000　建设工程基本法律知识::2Z201080　建设工程保险制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z201000　建设工程基本法律知识::2Z201090　建设工程法律责任制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z202000　施工许可法律制度::2Z202010　建设工程施工许可制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z202000　施工许可法律制度::2Z202020　施工企业从业资格制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z202000　施工许可法律制度::2Z202030　建造师注册执业制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z203000　建设工程发承包法律制度::2Z203010　建设工程招标投标制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z203000　建设工程发承包法律制度::2Z203020　建设工程承包制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z203000　建设工程发承包法律制度::2Z203030　建筑市场信用体系建设::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z204000　建设工程合同和劳动合同法律制度::2Z204010　建设工程合同制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z204000　建设工程合同和劳动合同法律制度::2Z204020　劳动合同及劳动关系制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z204000　建设工程合同和劳动合同法律制度::2Z204030　相关合同制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z205000　建设工程施工环境保护、节约能源和文物保护法律制度::2Z205010　施工现场环境保护制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z205000　建设工程施工环境保护、节约能源和文物保护法律制度::2Z205020　施工节约能源制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z205000　建设工程施工环境保护、节约能源和文物保护法律制度::2Z205030　施工文物保护制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z206000　建设工程安全生产法律制度::2Z206010　施工安全生产许可证制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z206000　建设工程安全生产法律制度::2Z206020　施工安全生产责任和安全生产教育培训制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z206000　建设工程安全生产法律制度::2Z206030　施工现场安全防护制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z206000　建设工程安全生产法律制度::2Z206040　施工安全事故的应急救援与调查处理::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z206000　建设工程安全生产法律制度::2Z206050　建设单位和相关单位的建设工程安全责任制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z207000　建设工程质量法律制度::2Z207010　工程建设标准::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z207000　建设工程质量法律制度::2Z207020　施工单位的质量责任和义务::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z207000　建设工程质量法律制度::2Z207030　建设单位及相关单位的质量责任和义务::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z207000　建设工程质量法律制度::2Z207040　建设工程竣工验收制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z207000　建设工程质量法律制度::2Z207050　建设工程质量保修制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z208000　解决建设工程纠纷法律制度::2Z208010　建设工程纠纷主要种类和法律解决途径::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z208000　解决建设工程纠纷法律制度::2Z208020　民事诉讼制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z208000　解决建设工程纠纷法律制度::2Z208030　仲裁制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z208000　解决建设工程纠纷法律制度::2Z208040　调解与和解制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z208000　解决建设工程纠纷法律制度::2Z208050　行政强制、行政复议和行政诉讼制度::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z101000  施工管理::2Z101010　施工方的项目管理::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z101000  施工管理::2Z101020　施工管理的组织::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z101000  施工管理::2Z101030　施工组织设计的内容和编制方法::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z101000  施工管理::2Z101040　施工项目管理目标的动态控制::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z101000  施工管理::2Z101050　施工项目经理的任务和责任::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z101000  施工管理::2Z101060　施工风险管理::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z101000  施工管理::2Z101070　工程监理的工作任务和方法::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z102000  施工成本管理::2Z102010　建筑安装工程费用项目的组成与计算::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z102000  施工成本管理::2Z102020　建设工程定额::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z102000  施工成本管理::2Z102030　合同价款约定与工程结算::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z102000  施工成本管理::2Z102040　施工成本管理与施工成本计划::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z102000  施工成本管理::2Z102050　施工成本控制与施工成本分析::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z103000  施工进度管理::2Z103010　建设工程项目进度控制的目标和任务::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z103000  施工进度管理::2Z103020　施工进度计划的类型及其作用::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z103000  施工进度管理::2Z103030　施工进度计划的编制方法::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z103000  施工进度管理::2Z103040　施工进度控制的任务和措施::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z104000  施工质量管理::2Z104010　施工质量管理与施工质量控制::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z104000  施工质量管理::2Z104020　施工质量管理体系::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z104000  施工质量管理::2Z104030　施工质量控制的内容和方法::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z104000  施工质量管理::2Z104040　施工质量事故预防与处理::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z104000  施工质量管理::2Z104050　施工质量的政府监督::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z105000  施工职业健康安全与环境管理::2Z105010　职业健康安全管理体系与环境管理体系::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z105000  施工职业健康安全与环境管理::2Z105020　施工安全生产管理::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z105000  施工职业健康安全与环境管理::2Z105030　生产安全事故应急预案和事故处理::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z105000  施工职业健康安全与环境管理::2Z105040　施工现场文明施工和环境保护的要求::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z106000  施工合同管理::2Z106010　施工发承包模式::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z106000  施工合同管理::2Z106020　施工合同与物资采购合同::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z106000  施工合同管理::2Z106030　施工计价方式::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z106000  施工合同管理::2Z106040　施工合同执行过程的管理::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z106000  施工合同管理::2Z106050　施工合同的索赔::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z107000  施工信息管理::2Z107010　施工信息管理的任务和方法::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z107000  施工信息管理::2Z107020　施工文件归档管理::1.单选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F310000　水利水电工程施工技术::2F311000　水利水电工程建筑物及建筑材料::2F311010　水利水电工程建筑物的类型及组成::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F310000　水利水电工程施工技术::2F311000　水利水电工程建筑物及建筑材料::2F311020　水利水电工程勘察与测量::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F310000　水利水电工程施工技术::2F311000　水利水电工程建筑物及建筑材料::2F311030　水利水电工程建筑材料::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F310000　水利水电工程施工技术::2F312000　水利水电工程施工导流::2F312010　导　流::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F310000　水利水电工程施工技术::2F312000　水利水电工程施工导流::2F312020　截　流::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F310000　水利水电工程施工技术::2F313000　水利水电工程主体工程施工::2F313010　土石方开挖工程::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F310000　水利水电工程施工技术::2F313000　水利水电工程主体工程施工::2F313020　地基与基础工程::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F310000　水利水电工程施工技术::2F313000　水利水电工程主体工程施工::2F313030　土石坝和堤防工程::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F310000　水利水电工程施工技术::2F313000　水利水电工程主体工程施工::2F313040　混凝土工程::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F310000　水利水电工程施工技术::2F313000　水利水电工程主体工程施工::2F313050　水利水电工程机电设备及金属结构安装工程::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F310000　水利水电工程施工技术::2F313000　水利水电工程主体工程施工::2F313060　水利水电工程施工安全技术::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F320000　水利水电工程项目施工管理::2F320010　水利工程建设程序::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F320000　水利水电工程项目施工管理::2F320020　水利水电工程施工组织设计::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F320000　水利水电工程项目施工管理::2F320030　水利水电工程施工成本管理::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F320000　水利水电工程项目施工管理::2F320040　水利水电工程施工招标投标管理::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F320000　水利水电工程项目施工管理::2F320050　水利水电工程施工合同管理::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F320000　水利水电工程项目施工管理::2F320060　水利水电工程施工质量管理::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F320000　水利水电工程项目施工管理::2F320070　水利水电工程施工质量评定::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F320000　水利水电工程项目施工管理::2F320080　水利水电工程施工安全管理::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F320000　水利水电工程项目施工管理::2F320090　水利水电工程验收::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F320000　水利水电工程项目施工管理::2F320100　水利水电工程项目施工管理::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F330000　水利水电工程项目施工相关法规与标准::2F331000　水利水电工程相关法规::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F330000　水利水电工程项目施工相关法规与标准::2F333000　二级建造师（水利水电工程）注册执业管理规定及相关要求::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z201000　建设工程基本法律知识::2Z201010　建设工程法律体系::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z201000　建设工程基本法律知识::2Z201020　建设工程法人制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z201000　建设工程基本法律知识::2Z201030　建设工程代理制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z201000　建设工程基本法律知识::2Z201040　建设工程物权制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z201000　建设工程基本法律知识::2Z201050　建设工程债权制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z201000　建设工程基本法律知识::2Z201060　建设工程知识产权制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z201000　建设工程基本法律知识::2Z201070　建设工程担保制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z201000　建设工程基本法律知识::2Z201080　建设工程保险制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z201000　建设工程基本法律知识::2Z201090　建设工程法律责任制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z202000　施工许可法律制度::2Z202010　建设工程施工许可制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z202000　施工许可法律制度::2Z202020　施工企业从业资格制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z202000　施工许可法律制度::2Z202030　建造师注册执业制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z203000　建设工程发承包法律制度::2Z203010　建设工程招标投标制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z203000　建设工程发承包法律制度::2Z203020　建设工程承包制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z203000　建设工程发承包法律制度::2Z203030　建筑市场信用体系建设::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z204000　建设工程合同和劳动合同法律制度::2Z204010　建设工程合同制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z204000　建设工程合同和劳动合同法律制度::2Z204020　劳动合同及劳动关系制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z204000　建设工程合同和劳动合同法律制度::2Z204030　相关合同制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z205000　建设工程施工环境保护、节约能源和文物保护法律制度::2Z205010　施工现场环境保护制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z205000　建设工程施工环境保护、节约能源和文物保护法律制度::2Z205020　施工节约能源制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z205000　建设工程施工环境保护、节约能源和文物保护法律制度::2Z205030　施工文物保护制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z206000　建设工程安全生产法律制度::2Z206010　施工安全生产许可证制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z206000　建设工程安全生产法律制度::2Z206020　施工安全生产责任和安全生产教育培训制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z206000　建设工程安全生产法律制度::2Z206030　施工现场安全防护制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z206000　建设工程安全生产法律制度::2Z206040　施工安全事故的应急救援与调查处理::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z206000　建设工程安全生产法律制度::2Z206050　建设单位和相关单位的建设工程安全责任制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z207000　建设工程质量法律制度::2Z207010　工程建设标准::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z207000　建设工程质量法律制度::2Z207020　施工单位的质量责任和义务::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z207000　建设工程质量法律制度::2Z207030　建设单位及相关单位的质量责任和义务::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z207000　建设工程质量法律制度::2Z207040　建设工程竣工验收制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z207000　建设工程质量法律制度::2Z207050　建设工程质量保修制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z208000　解决建设工程纠纷法律制度::2Z208010　建设工程纠纷主要种类和法律解决途径::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z208000　解决建设工程纠纷法律制度::2Z208020　民事诉讼制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z208000　解决建设工程纠纷法律制度::2Z208030　仲裁制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z208000　解决建设工程纠纷法律制度::2Z208040　调解与和解制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018法规::2Z208000　解决建设工程纠纷法律制度::2Z208050　行政强制、行政复议和行政诉讼制度::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z101000  施工管理::2Z101010　施工方的项目管理::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z101000  施工管理::2Z101020　施工管理的组织::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z101000  施工管理::2Z101030　施工组织设计的内容和编制方法::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z101000  施工管理::2Z101040　施工项目管理目标的动态控制::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z101000  施工管理::2Z101050　施工项目经理的任务和责任::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z101000  施工管理::2Z101060　施工风险管理::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z101000  施工管理::2Z101070　工程监理的工作任务和方法::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z102000  施工成本管理::2Z102010　建筑安装工程费用项目的组成与计算::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z102000  施工成本管理::2Z102020　建设工程定额::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z102000  施工成本管理::2Z102030　合同价款约定与工程结算::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z102000  施工成本管理::2Z102040　施工成本管理与施工成本计划::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z102000  施工成本管理::2Z102050　施工成本控制与施工成本分析::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z103000  施工进度管理::2Z103010　建设工程项目进度控制的目标和任务::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z103000  施工进度管理::2Z103020　施工进度计划的类型及其作用::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z103000  施工进度管理::2Z103030　施工进度计划的编制方法::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z103000  施工进度管理::2Z103040　施工进度控制的任务和措施::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z104000  施工质量管理::2Z104010　施工质量管理与施工质量控制::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z104000  施工质量管理::2Z104020　施工质量管理体系::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z104000  施工质量管理::2Z104030　施工质量控制的内容和方法::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z104000  施工质量管理::2Z104040　施工质量事故预防与处理::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z104000  施工质量管理::2Z104050　施工质量的政府监督::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z105000  施工职业健康安全与环境管理::2Z105010　职业健康安全管理体系与环境管理体系::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z105000  施工职业健康安全与环境管理::2Z105020　施工安全生产管理::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z105000  施工职业健康安全与环境管理::2Z105030　生产安全事故应急预案和事故处理::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z105000  施工职业健康安全与环境管理::2Z105040　施工现场文明施工和环境保护的要求::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z106000  施工合同管理::2Z106010　施工发承包模式::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z106000  施工合同管理::2Z106020　施工合同与物资采购合同::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z106000  施工合同管理::2Z106030　施工计价方式::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z106000  施工合同管理::2Z106040　施工合同执行过程的管理::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z106000  施工合同管理::2Z106050　施工合同的索赔::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z107000  施工信息管理::2Z107010　施工信息管理的任务和方法::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018管理::2Z107000  施工信息管理::2Z107020　施工文件归档管理::2.多选::</t>
-  </si>
-  <si>
-    <t>二建2018水利::2F310000　水利水电工程施工技术::2F311000　水利水电工程建筑物及建筑材料::2F311010　水利水电工程建筑物的类型及组成::1.单选::</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14951,923 +14401,925 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95751191-87DB-49E7-8B38-A0C012A84FB2}">
   <dimension ref="A1:A183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1935</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1844</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1753</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1845</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1754</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1846</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1755</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1847</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1756</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1848</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1757</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1849</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1758</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1850</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1759</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1851</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1760</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1852</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1761</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1853</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>1762</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>1854</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1763</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1855</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1764</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>1856</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1765</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>1857</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>1766</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>1858</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>1767</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>1859</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>1768</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>1860</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>1769</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>1861</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>1770</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>1862</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>1771</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>1863</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>1772</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>1864</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>1773</v>
+        <v>417</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>1865</v>
+        <v>418</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>1774</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>1775</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>1866</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>1776</v>
+        <v>468</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>1867</v>
+        <v>469</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>1777</v>
+        <v>486</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>1868</v>
+        <v>487</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>1778</v>
+        <v>504</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>1869</v>
+        <v>505</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>1779</v>
+        <v>522</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>1870</v>
+        <v>523</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>1780</v>
+        <v>540</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>1871</v>
+        <v>541</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>1781</v>
+        <v>558</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>1872</v>
+        <v>559</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>1782</v>
+        <v>576</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>1873</v>
+        <v>577</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>1783</v>
+        <v>594</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>1874</v>
+        <v>595</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>1784</v>
+        <v>612</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>1875</v>
+        <v>613</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>1785</v>
+        <v>639</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>1876</v>
+        <v>640</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>1786</v>
+        <v>657</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>1877</v>
+        <v>658</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>1787</v>
+        <v>675</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>1878</v>
+        <v>676</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>1788</v>
+        <v>696</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>1879</v>
+        <v>697</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>1789</v>
+        <v>714</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>1880</v>
+        <v>715</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>1790</v>
+        <v>732</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>1881</v>
+        <v>733</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>1791</v>
+        <v>753</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>1882</v>
+        <v>754</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>1792</v>
+        <v>771</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>1883</v>
+        <v>772</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>1793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>1884</v>
+        <v>790</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>1794</v>
+        <v>810</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>1885</v>
+        <v>811</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>1795</v>
+        <v>828</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>1886</v>
+        <v>829</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>1796</v>
+        <v>846</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>1887</v>
+        <v>847</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>1797</v>
+        <v>867</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>1888</v>
+        <v>868</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>1798</v>
+        <v>885</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>1889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>1799</v>
+        <v>903</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>1890</v>
+        <v>904</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>1800</v>
+        <v>921</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>1891</v>
+        <v>922</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>1801</v>
+        <v>939</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>1892</v>
+        <v>940</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>1802</v>
+        <v>962</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>1893</v>
+        <v>963</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>1803</v>
+        <v>980</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>1894</v>
+        <v>981</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>1804</v>
+        <v>998</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>1895</v>
+        <v>999</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>1805</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>1896</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>1806</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>1897</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>1807</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>1898</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>1808</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>1899</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>1809</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>1900</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>1810</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>1901</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>1811</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>1902</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>1812</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>1903</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>1813</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>1904</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>1814</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>1905</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>1815</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>1906</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>1816</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>1907</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>1817</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>1908</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>1818</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>1909</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>1819</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>1910</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>1820</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>1911</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>1821</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>1912</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>1822</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>1913</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>1823</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>1914</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>1824</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>1915</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>1825</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>1916</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>1826</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>1917</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>1827</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>1918</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>1828</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>1919</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>1829</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>1920</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>1830</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>1921</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>1831</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>1922</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>1832</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>1923</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>1833</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>1924</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>1834</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>1925</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>1835</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>1926</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>1836</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>1927</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>1837</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>1928</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>1838</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>1929</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>1839</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>1930</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>1840</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>1931</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>1841</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>1932</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>1842</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>1933</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>1843</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>1934</v>
+        <v>1749</v>
       </c>
     </row>
   </sheetData>
